--- a/data/weekly_summary.xlsx
+++ b/data/weekly_summary.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>3611</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>242</v>
+        <v>375</v>
       </c>
       <c r="D4" t="n">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>150.6666666666667</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>2811</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>110</v>
       </c>
       <c r="H5" t="n">
-        <v>2141</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="7">
@@ -636,22 +636,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.83333333333333</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="8">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>13.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1562</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="10">
@@ -729,19 +729,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>3.333333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>15.5</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>1207</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13">
@@ -846,22 +846,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D14" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G14" t="n">
-        <v>100.6666666666667</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15">
@@ -906,19 +906,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G16" t="n">
-        <v>42.66666666666666</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>998</v>
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19">
@@ -1026,19 +1026,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>921</v>
@@ -1071,7 +1071,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22">
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23">
@@ -1116,19 +1116,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="G23" t="n">
-        <v>59.5</v>
+        <v>56.33333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>855</v>
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>827</v>
@@ -1176,22 +1176,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.16666666666666</v>
+        <v>50.83333333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26">
@@ -1206,19 +1206,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>23.16666666666667</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>814</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>810</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29">
@@ -1366,10 +1366,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32">
@@ -1396,19 +1396,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D32" t="n">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="H32" t="n">
         <v>688</v>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34">
@@ -1481,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35">
@@ -1517,46 +1517,56 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NG-33Z-SW-TRD-CLR-6P-35</t>
+          <t>BeachBlanketGrayYellow</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B08LMJ77J2</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>57</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>10.5</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MA-RB-35BLU-90</t>
+          <t>NKADJKNFRD37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B0CRLHTXLD</t>
+          <t>B0921FSD42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1568,140 +1578,130 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MASTBLZR35</t>
+          <t>NO-LNG-BLU-26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B082463V8J</t>
+          <t>B0758JWJSC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>6.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BeachBlanketGrayYellow</t>
+          <t>MA-RB-35BLU-90</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0CRLHTXLD</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NKADJKNFRD37</t>
+          <t>NG-33Z-SW-TRD-CLR-6P-35</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B0921FSD42</t>
+          <t>B08LMJ77J2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NO-LNG-BLU-26</t>
+          <t>MA-HB-40BLK-83</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B0758JWJSC</t>
+          <t>B0CH8YXQND</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>21.33333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42">
@@ -1716,202 +1716,202 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>45</v>
       </c>
       <c r="G42" t="n">
-        <v>19.33333333333333</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MA-HB-40BLK-83</t>
+          <t>NO-LNG-RNBHRT-39</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B0CH8YXQND</t>
+          <t>B08G1Z6GNB</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="H43" t="n">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NO-LNG-RNBHRT-39</t>
+          <t>NG-4Z-DRP-AM-24P-62</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B08G1Z6GNB</t>
+          <t>B0CKJ5QH2N</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.666666666666667</v>
+        <v>38.83333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NG-4Z-DRP-AM-24P-62</t>
+          <t>MASTBLZR35</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B0CKJ5QH2N</t>
+          <t>B082463V8J</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>42.33333333333334</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-RND-CLR-6P-33</t>
+          <t>NG-8.5Z-SW-RND-CLR-DOT-6P-52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B08ZDVZSQC</t>
+          <t>B0D8JZ5PQT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.16666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="H46" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NG-8.5Z-SW-RND-CLR-DOT-6P-52</t>
+          <t>NG-8Z-RND-BLU-18P-45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B0D8JZ5PQT</t>
+          <t>B0CKKL33ZH</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NG-8Z-RND-BLU-18P-45</t>
+          <t>NG-17Z-SW-RND-CLR-6P-33</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B0CKKL33ZH</t>
+          <t>B08ZDVZSQC</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>17.16666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49">
@@ -1966,22 +1966,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>14.66666666666667</v>
+        <v>13.5</v>
       </c>
       <c r="H50" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51">
@@ -2011,18 +2011,18 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MA-RC-64X39-16BLK-34</t>
+          <t>NK4N1KNFS28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B082DNJ4QZ</t>
+          <t>B084Y1CZNH</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2041,18 +2041,18 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NK4N1KNFS28</t>
+          <t>MA-RC-64X39-16BLK-34</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B084Y1CZNH</t>
+          <t>B082DNJ4QZ</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55">
@@ -2137,61 +2137,61 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NH-GRP-MTR-3X6.5-TW-XL-1R</t>
+          <t>NG-4Z-SW-RND-CLR-20P-80</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B0CH91P9Y9</t>
+          <t>B0D8K22T3X</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D56" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>22.16666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="H56" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NG-4Z-SW-RND-CLR-20P-80</t>
+          <t>NH-GRP-MTR-3X6.5-TW-XL-1R</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B0D8K22T3X</t>
+          <t>B0CH91P9Y9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>18.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="H57" t="n">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="n">
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>489</v>
@@ -2236,82 +2236,82 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>10.33333333333333</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-CLR-24P-64</t>
+          <t>MA-HB-20YEL-60X20-20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B0CH92JB7Z</t>
+          <t>B0DM2NTWR3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>4.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MA-HB-20YEL-60X20-20</t>
+          <t>NO-LNG-LVDR-34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B0DM2NTWR3</t>
+          <t>B08G1XQN5F</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>7.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62">
@@ -2357,241 +2357,241 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NO-LNG-LVDR-34</t>
+          <t>NKADJKNFWHT36</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B08G1XQN5F</t>
+          <t>B0921LMTVH</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NKADJKNFWHT36</t>
+          <t>NG-1Z-DRP-AM-48P-89</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B0921LMTVH</t>
+          <t>B0DCW8QS38</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NG-1Z-DRP-AM-48P-89</t>
+          <t>NG-33Z-SW-SQR-CLR-6P-37</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B0DCW8QS38</t>
+          <t>B0B26W3XPQ</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
-        <v>8.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NG-33Z-SW-SQR-CLR-6P-37</t>
+          <t>MA-HC-70X30X6-52</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B0B26W3XPQ</t>
+          <t>B0DP37GS9G</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MA-HC-70X30X6-52</t>
+          <t>NG-8Z-RND-AM-12P-43</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B0DP37GS9G</t>
+          <t>B08W5G969Y</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="G67" t="n">
-        <v>8.166666666666666</v>
+        <v>97.66666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NG-8Z-RND-AM-12P-43</t>
+          <t>NO-LNG-GRN-27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B08W5G969Y</t>
+          <t>B0758W4WGS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>101.8333333333333</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NO-LNG-GRN-27</t>
+          <t>NG-8.5Z-BR-AM-18P-70</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B0758W4WGS</t>
+          <t>B0D28514HT</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NG-8.5Z-BR-AM-18P-70</t>
+          <t>MA-RB-30NVYBG-60X43-18</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B0D28514HT</t>
+          <t>B0F8WRNJQR</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>7.666666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71">
@@ -2606,227 +2606,227 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>7.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="H71" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MA-RB-30NVYBG-60X43-18</t>
+          <t>R-4208-1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B0F8WRNJQR</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>20</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>51</v>
-      </c>
-      <c r="G72" t="n">
-        <v>13.16666666666667</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H72" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R-4208-1</t>
+          <t>NKADJKNFBLK35</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B09217SCKQ</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-8X10-WHT-07</t>
+          <t>NO-LNG-2P-BLUGRN-28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B07W7KCCVM</t>
+          <t>B0758KBH8Z</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>33.16666666666666</v>
       </c>
       <c r="H74" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MA-NET-36X20-BLK-33</t>
+          <t>NG-4Z-SPY-AM-24P-57</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B07M65JM9H</t>
+          <t>B0CGSZL976</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>7.666666666666667</v>
+        <v>56</v>
       </c>
       <c r="H75" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-BLUGRN-28</t>
+          <t>MA-HM-DBC-83-TILT-96</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B0758KBH8Z</t>
+          <t>B0F67H5W5X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>33.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NKADJKNFBLK35</t>
+          <t>MA-NET-36X20-BLK-33</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B09217SCKQ</t>
+          <t>B07M65JM9H</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MA-HM-DBC-83-TILT-96</t>
+          <t>NH-GRP-RG-8X10-WHT-07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B0F67H5W5X</t>
+          <t>B07W7KCCVM</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2835,178 +2835,178 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>11.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NG-4Z-SPY-AM-24P-57</t>
+          <t>NG-8.5Z-SW-TRD-CLR-12P-27</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B0CGSZL976</t>
+          <t>B088J52LX7</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G79" t="n">
-        <v>56.83333333333334</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NG-8.5Z-SW-TRD-CLR-12P-27</t>
+          <t>NO-LNG-2P-BLUPINK-32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B088J52LX7</t>
+          <t>B0F1PH4QLY</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-BLUPINK-32</t>
+          <t>NG-2Z-DRP-BLU-48P-68</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B0F1PH4QLY</t>
+          <t>B0CR9FF59G</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="H81" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-BLU-48P-68</t>
+          <t>NG-2Z-DRP-BLU-24P-50</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B0CR9FF59G</t>
+          <t>B097TWPX7W</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D82" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>17.5</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-BLU-24P-50</t>
+          <t>NK4N1KNFSRD33</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B097TWPX7W</t>
+          <t>B08H3KCJT4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NK4N1KNFSRD33</t>
+          <t>NG-2Z-DRP-GRN-48P-85</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B08H3KCJT4</t>
+          <t>B0DCW99GPM</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3018,55 +3018,55 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-GRN-48P-85</t>
+          <t>MA-HC-70X30-40BLK-02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B0DCW99GPM</t>
+          <t>B0CT6BLKZH</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MA-HC-70X30-40BLK-02</t>
+          <t>NO-LNG-2P-NVYSFRN-55</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0CT6BLKZH</t>
+          <t>B085LNNFQM</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3075,28 +3075,28 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>10.66666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-NVYSFRN-55</t>
+          <t>NH-GRP-RG-FLT-4X6-GRY-1F</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B085LNNFQM</t>
+          <t>B08LX7Q8DM</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-FLT-4X6-GRY-1F</t>
+          <t>NG-2Z-DRP-CLR-24P-64</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B08LX7Q8DM</t>
+          <t>B0CH92JB7Z</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>18.83333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="H90" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91">
@@ -3226,22 +3226,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>2.833333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>3.333333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93">
@@ -3286,22 +3286,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>11.83333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="H93" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94">
@@ -3316,19 +3316,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D94" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>18.33333333333333</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>314</v>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>5.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96">
@@ -3376,22 +3376,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>11.83333333333333</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97">
@@ -3406,22 +3406,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98">
@@ -3451,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="H98" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99">
@@ -3481,7 +3481,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
@@ -3496,22 +3496,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D100" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>32</v>
       </c>
       <c r="G100" t="n">
-        <v>32.66666666666666</v>
+        <v>30</v>
       </c>
       <c r="H100" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101">
@@ -3541,52 +3541,52 @@
         <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MA-HC-66X30X14-45BLK-LT-14</t>
+          <t>MA-HC-72X36-50BLK-LT-13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B0FGKW24Z9</t>
+          <t>B0DTMLJ5XT</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>5.666666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MA-HC-72X36-50BLK-LT-13</t>
+          <t>MA-HC-66X30X14-45BLK-LT-14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B0DTMLJ5XT</t>
+          <t>B0FGKW24Z9</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>8.666666666666666</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104">
@@ -3616,22 +3616,22 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>7.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105">
@@ -3649,16 +3649,16 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>7.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>283</v>
@@ -3676,19 +3676,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>14</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>283</v>
@@ -3706,10 +3706,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108">
@@ -3751,82 +3751,82 @@
         <v>4.333333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-SQR-CLR-6P-60</t>
+          <t>MSBC-150D-M-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B0CDY1BM7M</t>
+          <t>B09G7LZ9DG</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>16.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NG-1Z-DRP-AM-100P-00</t>
+          <t>NG-17Z-SW-SQR-CLR-6P-60</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B0DCWC2CTZ</t>
+          <t>B0CDY1BM7M</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>7.166666666666667</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MSBC-150D-M-26</t>
+          <t>NG-1Z-DRP-AM-100P-00</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B09G7LZ9DG</t>
+          <t>B0DCWC2CTZ</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112">
@@ -3871,64 +3871,64 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MA-NET-39X36-BLK-45</t>
+          <t>NO-LNG-2P-NAVYRD-48</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B08DDKFRJ7</t>
+          <t>B0F22W9724</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-NAVYRD-48</t>
+          <t>NO-LNG-CAMO-44</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B0F22W9724</t>
+          <t>B0F9XM3134</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
+        <v>26</v>
+      </c>
+      <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>269</v>
@@ -3937,121 +3937,121 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NO-LNG-CAMO-44</t>
+          <t>MA-NET-39X36-BLK-45</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B0F9XM3134</t>
+          <t>B08DDKFRJ7</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>9.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MA-RB-30OR-88</t>
+          <t>NG-1Z-SPY-AM-48P-88</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B0G16B65QS</t>
+          <t>B0DCW93WHX</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>3.333333333333333</v>
+        <v>34.16666666666666</v>
       </c>
       <c r="H116" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NG-1Z-SPY-AM-48P-88</t>
+          <t>NO-LNG-BBLGM-71</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B0DCW93WHX</t>
+          <t>B0DK29BPM6</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="D117" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>36.66666666666666</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NO-LNG-BBLGM-71</t>
+          <t>NO-LNG-2P-GRYLVDR-31</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B0DK29BPM6</t>
+          <t>B084ZYZCBX</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119">
@@ -4066,13 +4066,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>12</v>
@@ -4087,22 +4087,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-GRYLVDR-31</t>
+          <t>MA-RB-30OR-88</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B084ZYZCBX</t>
+          <t>B0G16B65QS</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4111,97 +4111,97 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NG-8.5Z-FLSK-CLR-18P-98</t>
+          <t>MSBC-600D-M-28</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B0DVBM49MD</t>
+          <t>B09G75Q3JK</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>21.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MSBC-600D-M-28</t>
+          <t>NG-4Z-DRP-BLU-24P-63</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B09G75Q3JK</t>
+          <t>B0CKJ9DBQZ</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NG-4Z-DRP-BLU-24P-63</t>
+          <t>NG-8.5Z-FLSK-CLR-18P-98</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B0CKJ9DBQZ</t>
+          <t>B0DVBM49MD</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>12.83333333333333</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124">
@@ -4256,19 +4256,19 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>40</v>
       </c>
       <c r="G125" t="n">
-        <v>25.66666666666667</v>
+        <v>22.5</v>
       </c>
       <c r="H125" t="n">
         <v>242</v>
@@ -4277,371 +4277,371 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MA-HM-DBC-73-RMP-39</t>
+          <t>MA-RC-90X50-50BLK-22</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B087Z4H148</t>
+          <t>B0F67LFHJM</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>5.666666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MA-HC-RMP-60x30-06</t>
+          <t>MA-HM-DBC-73-RMP-39</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B0DPJ7JLDG</t>
+          <t>B087Z4H148</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>11.33333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MA-RC-90X50-50BLK-22</t>
+          <t>MA-HC-60X20-16BLK-27</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B0F67LFHJM</t>
+          <t>B07BL5SLGB</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H128" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MA-HC-60X20-16BLK-27</t>
+          <t>NG-8Z-RND-BLU-12P-73</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B07BL5SLGB</t>
+          <t>B0CV1Q88H5</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NO-LNG-BLCK-36</t>
+          <t>MA-HC-RMP-60x30-06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B0FHHYHLCF</t>
+          <t>B0DPJ7JLDG</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D130" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>23.16666666666667</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NG-8Z-RND-BLU-12P-73</t>
+          <t>NG-17Z-SW-RND-CLR-DOT-12P-23</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B0CV1Q88H5</t>
+          <t>B0D7X3ZL2F</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
         <v>3</v>
       </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="H131" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-RND-CLR-DOT-12P-23</t>
+          <t>NO-LNG-BLCK-36</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B0D7X3ZL2F</t>
+          <t>B0FHHYHLCF</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G132" t="n">
-        <v>17.5</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MA-NET-50X36-BLK-93</t>
+          <t>NG-2Z-DRP-GRN-24P-84</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B0CRLG67NG</t>
+          <t>B0DCW9P98K</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>6.666666666666667</v>
+        <v>11</v>
       </c>
       <c r="H133" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-GRN-24P-84</t>
+          <t>NG-33Z-SW-RND-CLR-DOT-6P-66</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B0DCW9P98K</t>
+          <t>B0CKK3V1Z9</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>11.83333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="H134" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NG-33Z-SW-RND-CLR-DOT-6P-66</t>
+          <t>MA-HC-60X20-28</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B0CKK3V1Z9</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>81</v>
-      </c>
-      <c r="D135" t="n">
-        <v>10</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>17.16666666666667</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H135" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MA-HC-60X20-28</t>
+          <t>NG-8.5Z-SW-RND-CLR-DOT-12P-53</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0D8K37ZJ5</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>80</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>30</v>
+      </c>
+      <c r="G136" t="n">
+        <v>18.83333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NG-8.5Z-SW-RND-CLR-DOT-12P-53</t>
+          <t>MA-NET-50X36-BLK-93</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B0D8K37ZJ5</t>
+          <t>B0CRLG67NG</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G137" t="n">
-        <v>18.66666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138">
@@ -4656,22 +4656,22 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>12</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>4.166666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139">
@@ -4686,37 +4686,37 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>3.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MA-RC-90X50-21</t>
+          <t>MA-HB-40RD-53</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B0DNGJPNYT</t>
+          <t>B0CYDF562K</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>3.833333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>193</v>
@@ -4737,16 +4737,16 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MA-HB-40RD-53</t>
+          <t>MA-RC-90X50-21</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B0CYDF562K</t>
+          <t>B0DNGJPNYT</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -4758,40 +4758,40 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NG-33Z-SW-TRD-CLR-TXT-6P-67</t>
+          <t>NG-1Z-DRP-BLU-48P-91</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B0CR9GTH3K</t>
+          <t>B0DCWCVR1Z</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E142" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="H142" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -4818,40 +4818,40 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1.333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NG-1Z-DRP-BLU-48P-91</t>
+          <t>MA-HC-60X20-LT-08</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B0DCWCVR1Z</t>
+          <t>B0DM3JV5MJ</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>10.83333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145">
@@ -4866,22 +4866,22 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>23.66666666666667</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146">
@@ -4899,49 +4899,49 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>6.666666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MA-HC-60X20-LT-08</t>
+          <t>NG-33Z-SW-TRD-CLR-TXT-6P-67</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B0DM3JV5MJ</t>
+          <t>B0CR9GTH3K</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="H147" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148">
@@ -4977,28 +4977,28 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MA-RB-50BLK-85X50-94</t>
+          <t>NO-LNG-PINK-33</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B0G1QRX27P</t>
+          <t>B0FHYHCSBL</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>20</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>176</v>
@@ -5007,106 +5007,106 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NG-4Z-DRP-AM-48P-82</t>
+          <t>MA-HB-16BLK-29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B0DCW71GZ7</t>
+          <t>B077GGRB6N</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D150" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>25.33333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="H150" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NO-LNG-PINK-33</t>
+          <t>MA-HC-60X30NVY-30NVY-16</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B0FHYHCSBL</t>
+          <t>B0FGLSS8KK</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D151" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>3.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MA-HB-16BLK-29</t>
+          <t>NG-4Z-DRP-AM-48P-82</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B077GGRB6N</t>
+          <t>B0DCW71GZ7</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E152" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>10</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MA-HC-60X30NVY-30NVY-16</t>
+          <t>NO-LNG-YEL-57</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B0FGLSS8KK</t>
+          <t>B09DDGYGW9</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -5118,100 +5118,100 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>6.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NO-LNG-YEL-57</t>
+          <t>NG-2Z-RND-CLR-48P-87</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B09DDGYGW9</t>
+          <t>B0DCWY3V4Y</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MA-CV-ZP-SED-190X75X60-M-64</t>
+          <t>MA-RB-50BLK-85X50-94</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>B08MHB2JKV</t>
+          <t>B0G1QRX27P</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1.333333333333333</v>
+        <v>20</v>
       </c>
       <c r="H155" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NG-2Z-RND-CLR-48P-87</t>
+          <t>MA-HC-48X18-15RD-PC-50</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B0DCWY3V4Y</t>
+          <t>B0CH7PJ49H</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157">
@@ -5241,25 +5241,25 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MA-HC-48X18-15RD-PC-50</t>
+          <t>MA-CV-ZP-SED-190X75X60-M-64</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B0CH7PJ49H</t>
+          <t>B08MHB2JKV</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D160" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -5328,118 +5328,118 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MA-HC-ALU-49X22-20GRY-127</t>
+          <t>MA-HB-25BLU-59</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B0GFPWZS8D</t>
+          <t>B0CJWNZTQF</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>12.66666666666667</v>
+        <v>10.5</v>
       </c>
       <c r="H161" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MA-HB-25BLU-59</t>
+          <t>MA-HC-40X40-30BLK-68</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B0CJWNZTQF</t>
+          <t>B0F76BYG62</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
         <v>2</v>
       </c>
-      <c r="F162" t="n">
-        <v>52</v>
-      </c>
-      <c r="G162" t="n">
-        <v>12.33333333333333</v>
-      </c>
       <c r="H162" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MA-HC-40X40-30BLK-68</t>
+          <t>MA-HC-ALU-49X22-20GRY-127</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B0F76BYG62</t>
+          <t>B0GFPWZS8D</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2.166666666666667</v>
+        <v>11</v>
       </c>
       <c r="H163" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MA-RC-64X39-20OR-76</t>
+          <t>NO-LNG-NAVY-45</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B0BMJW4244</t>
+          <t>B0DRZ4LDRW</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>6</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>145</v>
@@ -5457,101 +5457,101 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NO-LNG-NAVY-45</t>
+          <t>NO-LNG-2P-BLUEPUR-54</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B0DRZ4LDRW</t>
+          <t>B0F24XF27H</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>8.666666666666666</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-BLUEPUR-54</t>
+          <t>BeachBlanketLavenderGray</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B0F24XF27H</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>23</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>3.833333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H166" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BeachBlanketLavenderGray</t>
+          <t>MA-RC-64X39-20OR-76</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0BMJW4244</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>34</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.666666666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
@@ -5566,22 +5566,22 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D168" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G168" t="n">
-        <v>57.66666666666666</v>
+        <v>52.83333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
@@ -5611,7 +5611,7 @@
         <v>1.5</v>
       </c>
       <c r="H169" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -5696,19 +5696,19 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>5.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>132</v>
@@ -5747,16 +5747,16 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MA-HC-60X20-16GRY-58</t>
+          <t>MA-RC-84X39-91</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B08L5MBNS3</t>
+          <t>B0CRJP1GRX</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -5765,40 +5765,40 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G174" t="n">
-        <v>2.833333333333333</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MA-RC-84X39-91</t>
+          <t>MA-HC-60X20-16GRY-58</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B0CRJP1GRX</t>
+          <t>B08L5MBNS3</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F175" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>9.333333333333334</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>129</v>
@@ -5831,167 +5831,167 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MA-CV-RG-SUV-182X74X68-S-63</t>
+          <t>MHWIPSA34</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B08P24CVK3</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>11</v>
-      </c>
-      <c r="D177" t="n">
-        <v>8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3.166666666666667</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H177" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-5X7-WHT-40</t>
+          <t>MGANVLRED37</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B0764JYHMH</t>
+          <t>B08TCK52HZ</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MHWIPSA34</t>
+          <t>MA-CV-RG-SUV-182X74X68-S-63</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B08P24CVK3</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>14</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3</v>
       </c>
       <c r="H179" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MGANVLRED37</t>
+          <t>NG-33Z-SW-RND-CLR-6P-36</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B08TCK52HZ</t>
+          <t>B098TZYNSD</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NG-33Z-SW-RND-CLR-6P-36</t>
+          <t>NH-GRP-RG-5X7-WHT-40</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B098TZYNSD</t>
+          <t>B0764JYHMH</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
         <v>1</v>
       </c>
-      <c r="E181" t="n">
-        <v>27</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>29.5</v>
-      </c>
       <c r="H181" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182">
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183">
@@ -6046,13 +6046,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D184" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -6088,28 +6088,28 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>20.16666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MA-HC-60X24X14-80</t>
+          <t>NG-4Z-SPY-BLU-48P-71</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B0D2BLRJN3</t>
+          <t>B0CX3B7ZK7</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6118,88 +6118,88 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>18.5</v>
       </c>
       <c r="H185" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MA-HC-48X18-15BLU-BENCH-95</t>
+          <t>NH-GRP-MTR-6X7-CKG-28</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B0DS6K5R9L</t>
+          <t>B0CTN4NF6K</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>3.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>NG-4Z-SPY-BLU-48P-71</t>
+          <t>MA-HC-60X24-87</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B0CX3B7ZK7</t>
+          <t>B0CRJM1P6N</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>18.83333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>NH-GRP-MTR-6X7-CKG-28</t>
+          <t>MA-HC-60X24X14-80</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B0CTN4NF6K</t>
+          <t>B0D2BLRJN3</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -6208,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>6.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189">
@@ -6241,43 +6241,53 @@
         <v>2.166666666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MA-HC-60X24-87</t>
+          <t>MA-HTCHLCK-72</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B0CRJM1P6N</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>21</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="n">
-        <v>3.5</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H190" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MA-HTCHLCK-72</t>
+          <t>BX-CC-41</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6311,74 +6321,74 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MA-HC-60X24-25BLU-77</t>
+          <t>BX-CC-42</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B0BZTBN393</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>33</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.5</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H192" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BX-CC-42</t>
+          <t>MA-HC-48X18-15BLU-BENCH-95</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0DS6K5R9L</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>18</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3.166666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>100</v>
@@ -6387,41 +6397,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BX-CC-41</t>
+          <t>MA-HC-60X24-25BLU-77</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0BZTBN393</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>10</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5</v>
       </c>
       <c r="H194" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195">
@@ -6451,64 +6451,64 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MA-CV-HD-SED-175X70X60-XS-97</t>
+          <t>NO-LNG-2P-BLKBLUE-56</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B0CZMC6YR4</t>
+          <t>B0F24TQG6X</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NO-LNG-2P-BLKBLUE-56</t>
+          <t>MA-CV-HD-SED-175X70X60-XS-97</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B0F24TQG6X</t>
+          <t>B0CZMC6YR4</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>3.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>97</v>
@@ -6517,68 +6517,68 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MA-HC-H1.25-48x20-15BLK-01</t>
+          <t>NK3N1KNFS27</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B084WZ582N</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-RND-CLR-DOT-6P-22</t>
+          <t>MA-HC-H1.25-48x20-15BLK-01</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B0D7X44RSM</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>62</v>
-      </c>
-      <c r="D199" t="n">
-        <v>25</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>12</v>
-      </c>
-      <c r="G199" t="n">
-        <v>16.83333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H199" t="n">
         <v>96</v>
@@ -6587,31 +6587,31 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NK3N1KNFS27</t>
+          <t>NG-17Z-SW-RND-CLR-DOT-6P-22</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B084WZ582N</t>
+          <t>B0D7X44RSM</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="201">
@@ -6626,22 +6626,22 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F201" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>10.66666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202">
@@ -6656,67 +6656,67 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>10.33333333333333</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="H202" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MA-HC-60X24X14-30YEL-LT-81</t>
+          <t>MA-HB-30BLK-40X40-11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>B0D4MR4M7B</t>
+          <t>B0DX81H6W7</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>15.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MA-HB-30BLK-40X40-11</t>
+          <t>NH-GRP-SOF-2X7-2P-WHT-31</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>B0DX81H6W7</t>
+          <t>B0D5BYHDXH</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -6725,43 +6725,43 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1.833333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NH-GRP-SOF-2X7-2P-WHT-31</t>
+          <t>MA-HC-60X24X14-30YEL-LT-81</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B0D5BYHDXH</t>
+          <t>B0D4MR4M7B</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G205" t="n">
-        <v>8.333333333333334</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="206">
@@ -6791,115 +6791,115 @@
         <v>2</v>
       </c>
       <c r="H206" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MA-HC-60X20-20OR-30</t>
+          <t>MA-RB-16BLK-32</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>B077GH5RHP</t>
+          <t>B077GJ4JD7</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F207" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>9.666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MA-RB-16BLK-32</t>
+          <t>MA-HC-60X20-20OR-30</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>B077GJ4JD7</t>
+          <t>B077GH5RHP</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1.333333333333333</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="H208" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MA-CV-HD-SED-190X75X47-M-66</t>
+          <t>NG-2Z-DRP-CLR-48P-65</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>B08P27J62Z</t>
+          <t>B0CH92RB5Z</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8333333333333334</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MA-CV-HD-SUV-190X75X57-M-67</t>
+          <t>MA-CV-HD-MTC-91X49X39-130</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>B08P25QXDS</t>
+          <t>B0GJFXV2J9</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -6908,58 +6908,58 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-CLR-48P-65</t>
+          <t>MA-CV-HD-SUV-190X75X57-M-67</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>B0CH92RB5Z</t>
+          <t>B08P25QXDS</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>18.83333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H211" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MA-CV-HD-MTC-91X49X39-130</t>
+          <t>MA-CV-HD-SED-190X75X47-M-66</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>B0GJFXV2J9</t>
+          <t>B08P27J62Z</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D212" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -6968,37 +6968,47 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>3.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MA-HC-ALU-RMP-50X29-128</t>
+          <t>BX-CC-09</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>B0GFQ7PVR6</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>36</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>42</v>
-      </c>
-      <c r="G213" t="n">
-        <v>13.16666666666667</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>75</v>
@@ -7007,7 +7017,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BX-CC-09</t>
+          <t>MHMIC2PGLDSIL1K</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7041,77 +7051,77 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MHMIC2PGLDSIL1K</t>
+          <t>MA-RC-50X36-18ORBG-131</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0GFGLG5BK</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>21</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>21</v>
+      </c>
+      <c r="G215" t="n">
+        <v>7</v>
       </c>
       <c r="H215" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MA-RC-50X36-18ORBG-131</t>
+          <t>MHWINCO98</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>B0GFGLG5BK</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>42</v>
-      </c>
-      <c r="G216" t="n">
-        <v>7</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H216" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217">
@@ -7129,119 +7139,119 @@
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G217" t="n">
         <v>14.66666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MHWINCO98</t>
+          <t>MA-CV-HD-TRK-235X80X77-L-00</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0CZMNK51H</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>4</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MA-CV-HD-TRK-235X80X77-L-00</t>
+          <t>MA-HC-ALU-RMP-50X29-128</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B0CZMNK51H</t>
+          <t>B0GFQ7PVR6</t>
         </is>
       </c>
       <c r="C219" t="n">
+        <v>26</v>
+      </c>
+      <c r="D219" t="n">
+        <v>28</v>
+      </c>
+      <c r="E219" t="n">
         <v>5</v>
       </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2</v>
-      </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1.166666666666667</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="H219" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-SQR-CLR-12P-61</t>
+          <t>NO-LNG-CAM-44</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B0CDXZJ9PF</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>186</v>
-      </c>
-      <c r="G220" t="n">
-        <v>31</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H220" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221">
@@ -7256,7 +7266,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -7268,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>6.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H221" t="n">
         <v>61</v>
@@ -7277,176 +7287,176 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>NO-LNG-CAM-44</t>
+          <t>MA-RC-64X39-71</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0BZBJDQTQ</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>48</v>
+      </c>
+      <c r="G222" t="n">
+        <v>8</v>
       </c>
       <c r="H222" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>NO-LNG-PUR-43</t>
+          <t>NO-LNG-SFRN-47</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>B07RJ85MW7</t>
+          <t>B084RYH4PJ</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MA-RC-64X39-71</t>
+          <t>NO-LNG-PUR-43</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B0BZBJDQTQ</t>
+          <t>B07RJ85MW7</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H224" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NO-LNG-SFRN-47</t>
+          <t>R-4073-2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>B084RYH4PJ</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>17</v>
-      </c>
-      <c r="D225" t="n">
-        <v>24</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>7</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H225" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>NG-8Z-RND-AM-18P-44</t>
+          <t>MA-DG-ST-101</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>B088TWMZ8L</t>
+          <t>B0F3ZBN73Z</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MA-DG-ST-101</t>
+          <t>NDPINAPP36</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>B0F3ZBN73Z</t>
+          <t>B08428J1R3</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -7458,77 +7468,67 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>R-4073-2</t>
+          <t>NG-17Z-SW-SQR-CLR-12P-61</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0CDXZJ9PF</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>186</v>
+      </c>
+      <c r="G228" t="n">
+        <v>31</v>
       </c>
       <c r="H228" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>NG-2Z-DRP-AM-24P-41</t>
+          <t>NG-8Z-RND-AM-18P-44</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>B088NS2VTH</t>
+          <t>B088TWMZ8L</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D229" t="n">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>42.33333333333334</v>
+        <v>32.83333333333334</v>
       </c>
       <c r="H229" t="n">
         <v>54</v>
@@ -7537,37 +7537,47 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>NDPINAPP36</t>
+          <t>BX-CC-21</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B08428J1R3</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="n">
-        <v>1.833333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H230" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>R-4047-1</t>
+          <t>BX-CC-13</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7647,7 +7657,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>R-4062-1</t>
+          <t>BX-CC-12</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7687,7 +7697,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>R-4046-1</t>
+          <t>R-4062-1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7727,7 +7737,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BX-CC-21</t>
+          <t>R-4047-1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7767,7 +7777,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BX-CC-12</t>
+          <t>R-4046-1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7807,41 +7817,31 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BX-CC-13</t>
+          <t>NH-GRP-SOF-2x6-2P-WHT-1V</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B09C13WCFL</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>88</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5</v>
+      </c>
+      <c r="G237" t="n">
+        <v>15.66666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238">
@@ -7856,13 +7856,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -7871,43 +7871,53 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>NH-GRP-SOF-2x6-2P-WHT-1V</t>
+          <t>MA-82-2/2</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>B09C13WCFL</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>100</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5</v>
-      </c>
-      <c r="G239" t="n">
-        <v>17.5</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H239" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MA-82-2/2</t>
+          <t>MA-82-1/2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7947,41 +7957,31 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MA-82-1/2</t>
+          <t>NG-2Z-DRP-AM-24P-41</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B088NS2VTH</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>131</v>
+      </c>
+      <c r="D241" t="n">
+        <v>62</v>
+      </c>
+      <c r="E241" t="n">
+        <v>30</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>37.16666666666666</v>
       </c>
       <c r="H241" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242">
@@ -7996,22 +7996,22 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D242" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
         <v>6</v>
       </c>
       <c r="G242" t="n">
-        <v>7</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H242" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243">
@@ -8026,10 +8026,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E243" t="n">
         <v>2</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>11.66666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H243" t="n">
         <v>28</v>
@@ -8117,7 +8117,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BX-CC-38</t>
+          <t>BX-CC-14</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8157,28 +8157,38 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MHMICSIL92</t>
+          <t>BX-CC-91</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>B07FSQBSJJ</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>44</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0</v>
-      </c>
-      <c r="G247" t="n">
-        <v>7.333333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H247" t="n">
         <v>25</v>
@@ -8267,7 +8277,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BX-CC-91</t>
+          <t>BX-CC-92</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8307,7 +8317,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BX-CC-14</t>
+          <t>BX-CC-38</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8347,111 +8357,101 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BX-CC-92</t>
+          <t>MHMICSIL92</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B07FSQBSJJ</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>40</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>6.666666666666667</v>
       </c>
       <c r="H252" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-2X6-WHT-21</t>
+          <t>BeachBlanketBluePink</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B0CQZ5YS94</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>10</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0</v>
-      </c>
-      <c r="E253" t="n">
-        <v>0</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0</v>
-      </c>
-      <c r="G253" t="n">
-        <v>1.666666666666667</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H253" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BeachBlanketBluePink</t>
+          <t>NH-GRP-RG-2X6-WHT-21</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0CQZ5YS94</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255">
@@ -8469,10 +8469,10 @@
         <v>3</v>
       </c>
       <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
         <v>1</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D256" t="n">
         <v>1</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>7.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>14</v>
@@ -8557,16 +8557,16 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MA-DGS-ST-PN-118</t>
+          <t>NH-GRP-RG-9X12-BLK-1A</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>B0F3ZLQSQP</t>
+          <t>B089QV77S3</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -8578,55 +8578,65 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>1.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H258" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>NO-LNG-RD-46</t>
+          <t>M-CAP</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>B084RYK9C9</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0</v>
-      </c>
-      <c r="F259" t="n">
-        <v>20</v>
-      </c>
-      <c r="G259" t="n">
-        <v>3.333333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H259" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-9X12-BLK-1A</t>
+          <t>MA-HC-60X24-30OR-PC-23</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B089QV77S3</t>
+          <t>B0DWZF8XZ3</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -8638,37 +8648,47 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="H260" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-4X6-WHT-39</t>
+          <t>R-4062-2</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>B0764JCX8G</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>20</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" t="n">
-        <v>0</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" t="n">
-        <v>3.333333333333333</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H261" t="n">
         <v>10</v>
@@ -8677,38 +8697,28 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BeachBlanketGrayBlueL</t>
+          <t>NO-LNG-RD-46</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B084RYK9C9</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>20</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3.333333333333333</v>
       </c>
       <c r="H262" t="n">
         <v>10</v>
@@ -8717,28 +8727,38 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MA-HC-60X24-30OR-PC-23</t>
+          <t>BeachBlanketGrayBlueL</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>B0DWZF8XZ3</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>15</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0</v>
-      </c>
-      <c r="F263" t="n">
-        <v>0</v>
-      </c>
-      <c r="G263" t="n">
-        <v>2.5</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H263" t="n">
         <v>10</v>
@@ -8747,38 +8767,28 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>M-CAP</t>
+          <t>MA-DGS-ST-PN-118</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0F3ZLQSQP</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>10</v>
@@ -8787,7 +8797,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>R-4062-2</t>
+          <t>NMKMICBLK26</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8821,7 +8831,7 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
@@ -8867,38 +8877,28 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>NMKMICBLK26</t>
+          <t>NH-GRP-RG-4X6-WHT-39</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0764JCX8G</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>20</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>3.333333333333333</v>
       </c>
       <c r="H267" t="n">
         <v>9</v>
@@ -8916,19 +8916,19 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D268" t="n">
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F268" t="n">
         <v>24</v>
       </c>
       <c r="G268" t="n">
-        <v>16.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="H268" t="n">
         <v>9</v>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
         <v>7</v>
@@ -9097,46 +9097,46 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NO-LNG-JN-40</t>
+          <t>NH-GRP-MTR-6X6-KG-1P</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B08G212YSX</t>
+          <t>B09C11G6RT</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H274" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-2X60-WHT-26</t>
+          <t>NH-GRP-RG-3X5-WHT-22</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>B0DGHNBFG5</t>
+          <t>B089NC4MNW</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>5</v>
@@ -9157,28 +9157,28 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-3X5-WHT-22</t>
+          <t>NG-4Z-SPY-BLU-24P-51</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>B089NC4MNW</t>
+          <t>B088TV15WV</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F276" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1.5</v>
+        <v>20.5</v>
       </c>
       <c r="H276" t="n">
         <v>5</v>
@@ -9187,19 +9187,19 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NH-GRP-MTR-6X6-KG-1P</t>
+          <t>NO-LNG-JN-40</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>B09C11G6RT</t>
+          <t>B08G212YSX</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>8.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H277" t="n">
         <v>5</v>
@@ -9217,28 +9217,28 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>NG-4Z-SPY-BLU-24P-51</t>
+          <t>NH-GRP-RG-9X12-WHT-08</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>B088TV15WV</t>
+          <t>B082YFQXB3</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>22.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H278" t="n">
         <v>5</v>
@@ -9256,19 +9256,19 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F279" t="n">
         <v>33</v>
       </c>
       <c r="G279" t="n">
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="H279" t="n">
         <v>5</v>
@@ -9277,16 +9277,16 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-FLT-5X7-GRY-1G</t>
+          <t>NG-17Z-SW-TRD-CLR-TXT-6P-24</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>B08LXRRP29</t>
+          <t>B0D8K1HS7J</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
@@ -9298,58 +9298,58 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="H280" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-9X12-WHT-08</t>
+          <t>MA-DGS-ST-MP-07-14-119</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>B082YFQXB3</t>
+          <t>B0F3ZWNPFQ</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>NH-GRP-SOF-2x4-WHT-1T</t>
+          <t>MA-DGB-ST-MP-07-14-110</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>B09ZZXTD3W</t>
+          <t>B0F3Z83BL1</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
@@ -9358,25 +9358,25 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H282" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>MA-DGB-ST-MP-07-14-110</t>
+          <t>NH-GRP-RG-FLT-5X7-GRY-1G</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B0F3Z83BL1</t>
+          <t>B08LXRRP29</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H283" t="n">
         <v>4</v>
@@ -9427,12 +9427,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>NG-1Z-SPY-AM-24P-38</t>
+          <t>NH-GRP-RG-2X60-WHT-26</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B08LMGGVPY</t>
+          <t>B0DGHNBFG5</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -9457,28 +9457,28 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>NG-17Z-SW-TRD-CLR-TXT-6P-24</t>
+          <t>NH-GRP-MTR-4X6-FL-1N</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B0D8K1HS7J</t>
+          <t>B09BZYTMH2</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D286" t="n">
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>9</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>4</v>
@@ -9487,16 +9487,16 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MA-DGS-ST-MP-07-14-119</t>
+          <t>NH-GRP-RG-FLT-6X9-GRY-1H</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>B0F3ZWNPFQ</t>
+          <t>B08LZLZLWD</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>4</v>
@@ -9517,98 +9517,88 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>NH-GRP-MTR-4X6-FL-1N</t>
+          <t>NG-1Z-SPY-AM-24P-38</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>B09BZYTMH2</t>
+          <t>B08LMGGVPY</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>8.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-FLT-6X9-GRY-1H</t>
+          <t>NH-GRP-MTR-4.5X6-QN-1O</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>B08LZLZLWD</t>
+          <t>B098BLJK37</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-3X60-WHT-27</t>
+          <t>NH-GRP-RG-FLT-9X12-GRY-1L</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0CVMH88QH</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
       </c>
       <c r="H290" t="n">
         <v>3</v>
@@ -9617,22 +9607,22 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>NH-GRP-MTR-4.5X6-QN-1O</t>
+          <t>NH-GRP-SOF-2x4-WHT-1T</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>B098BLJK37</t>
+          <t>B09ZZXTD3W</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -9647,12 +9637,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-FLT-9X12-GRY-1L</t>
+          <t>NH-GRP-RG-FLT-8X10-GRY-1K</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>B0CVMH88QH</t>
+          <t>B0CVLZPY1J</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -9671,44 +9661,34 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>MA-DGB-ST-P-386-587-108</t>
+          <t>MA-DGS-ST-VV-04-17-113</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0F3ZQJ7SH</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
       </c>
       <c r="H293" t="n">
         <v>2</v>
@@ -9717,28 +9697,38 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MA-DGS-ST-VV-04-17-113</t>
+          <t>MA-DGB-ST-P-386-587-108</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>B0F3ZQJ7SH</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>0</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0</v>
-      </c>
-      <c r="E294" t="n">
-        <v>0</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H294" t="n">
         <v>2</v>
@@ -9777,12 +9767,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-FLT-8X10-GRY-1K</t>
+          <t>NG-12Z-SW-RND-CLR-12P-78</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>B0CVLZPY1J</t>
+          <t>B0D8JYP94M</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -9795,13 +9785,13 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -9816,13 +9806,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D297" t="n">
         <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -9837,16 +9827,16 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>NH-GRP-RG-2X10-WHT-2A</t>
+          <t>MA-DGB-ST-VV-04-17-104</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B09ZZ9HJ8Z</t>
+          <t>B0F3Y38CKQ</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
         <v>0</v>
@@ -9858,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
         <v>1</v>
@@ -9897,16 +9887,16 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>NG-12Z-SW-RND-CLR-12P-78</t>
+          <t>NH-GRP-RG-2X10-WHT-2A</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>B0D8JYP94M</t>
+          <t>B09ZZ9HJ8Z</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -9915,10 +9905,10 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H300" t="n">
         <v>1</v>
@@ -9927,28 +9917,38 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>NO-LNG-GRYCAM-52</t>
+          <t>R-4281-1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>B084SPQ8J1</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0</v>
-      </c>
-      <c r="E301" t="n">
-        <v>0</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H301" t="n">
         <v>1</v>
@@ -9957,42 +9957,52 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>MA-DGB-ST-VV-04-17-104</t>
+          <t>MA-STP-DR-8X3-BLK-124</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>B0F3Y38CKQ</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MA-DGB-ST-KN-107</t>
+          <t>NO-LNG-GRYCAM-52</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B0F3YWHYVV</t>
+          <t>B084SPQ8J1</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -10017,38 +10027,28 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MA-STP-DR-8X3-BLK-124</t>
+          <t>MA-DGB-ST-KN-107</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>B0F3YWHYVV</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -10117,12 +10117,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MA-DGS-ST-KN-116</t>
+          <t>MA-DGB-ST-VV-18-23-105</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>B0F413SYRZ</t>
+          <t>B0F3Y2VJH6</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -10147,12 +10147,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MA-DGB-ST-VV-18-23-105</t>
+          <t>MA-DGS-ST-KN-116</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>B0F3Y2VJH6</t>
+          <t>B0F413SYRZ</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
         <v>50</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>8.333333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="H310" t="n">
         <v>-1</v>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
         <v>0</v>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
@@ -11616,19 +11616,19 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>12.83333333333333</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -11715,13 +11715,13 @@
         <v>0</v>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -11747,13 +11747,13 @@
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G355" t="n">
         <v>6.666666666666667</v>
@@ -12640,19 +12640,19 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D383" t="n">
         <v>3</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>3.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H383" t="inlineStr">
         <is>
@@ -12672,19 +12672,19 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D386" t="n">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>4</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -13228,7 +13228,7 @@
         <v>28</v>
       </c>
       <c r="G401" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -14016,19 +14016,19 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D426" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F426" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>11.33333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
@@ -14752,19 +14752,19 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D449" t="n">
         <v>0</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F449" t="n">
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>13</v>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E463" t="n">
         <v>0</v>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>2.166666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
@@ -16163,13 +16163,13 @@
         <v>0</v>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E493" t="n">
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -16195,13 +16195,13 @@
         <v>0</v>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
       </c>
       <c r="F494" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G494" t="n">
         <v>8</v>
@@ -16227,13 +16227,13 @@
         <v>0</v>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E495" t="n">
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G495" t="n">
         <v>8</v>
